--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4052,28 +4052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1870.482128491268</v>
+        <v>2016.114315154808</v>
       </c>
       <c r="AB2" t="n">
-        <v>2559.276168049303</v>
+        <v>2758.536550680991</v>
       </c>
       <c r="AC2" t="n">
-        <v>2315.022442537339</v>
+        <v>2495.265693914362</v>
       </c>
       <c r="AD2" t="n">
-        <v>1870482.128491268</v>
+        <v>2016114.315154808</v>
       </c>
       <c r="AE2" t="n">
-        <v>2559276.168049303</v>
+        <v>2758536.550680991</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.433453472880835e-07</v>
+        <v>1.25666219156273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.25694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>2315022.442537339</v>
+        <v>2495265.693914362</v>
       </c>
     </row>
     <row r="3">
@@ -4158,28 +4158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1115.090248921635</v>
+        <v>1219.064498766851</v>
       </c>
       <c r="AB3" t="n">
-        <v>1525.715672884404</v>
+        <v>1667.977828542796</v>
       </c>
       <c r="AC3" t="n">
-        <v>1380.103510419712</v>
+        <v>1508.788365608256</v>
       </c>
       <c r="AD3" t="n">
-        <v>1115090.248921635</v>
+        <v>1219064.498766851</v>
       </c>
       <c r="AE3" t="n">
-        <v>1525715.672884404</v>
+        <v>1667977.828542796</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045273593830346e-06</v>
+        <v>1.767086872875019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.38271604938272</v>
       </c>
       <c r="AH3" t="n">
-        <v>1380103.510419712</v>
+        <v>1508788.365608256</v>
       </c>
     </row>
     <row r="4">
@@ -4264,28 +4264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>947.8982562366471</v>
+        <v>1041.458021877282</v>
       </c>
       <c r="AB4" t="n">
-        <v>1296.956212502657</v>
+        <v>1424.968811417725</v>
       </c>
       <c r="AC4" t="n">
-        <v>1173.17653187088</v>
+        <v>1288.971788012305</v>
       </c>
       <c r="AD4" t="n">
-        <v>947898.256236647</v>
+        <v>1041458.021877282</v>
       </c>
       <c r="AE4" t="n">
-        <v>1296956.212502657</v>
+        <v>1424968.811417725</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.163860127260931e-06</v>
+        <v>1.96756329145271e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.4074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1173176.53187088</v>
+        <v>1288971.788012305</v>
       </c>
     </row>
     <row r="5">
@@ -4370,28 +4370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>871.2089184283076</v>
+        <v>964.8539354149634</v>
       </c>
       <c r="AB5" t="n">
-        <v>1192.026477218484</v>
+        <v>1320.155720786202</v>
       </c>
       <c r="AC5" t="n">
-        <v>1078.26114325242</v>
+        <v>1194.161911644557</v>
       </c>
       <c r="AD5" t="n">
-        <v>871208.9184283076</v>
+        <v>964853.9354149634</v>
       </c>
       <c r="AE5" t="n">
-        <v>1192026.477218484</v>
+        <v>1320155.720786202</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.226672126367654e-06</v>
+        <v>2.073750092435403e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.51620370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>1078261.14325242</v>
+        <v>1194161.911644557</v>
       </c>
     </row>
     <row r="6">
@@ -4476,28 +4476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>819.2786721523754</v>
+        <v>912.8383482844595</v>
       </c>
       <c r="AB6" t="n">
-        <v>1120.973223262979</v>
+        <v>1248.985699708498</v>
       </c>
       <c r="AC6" t="n">
-        <v>1013.98911213056</v>
+        <v>1129.784257490758</v>
       </c>
       <c r="AD6" t="n">
-        <v>819278.6721523755</v>
+        <v>912838.3482844594</v>
       </c>
       <c r="AE6" t="n">
-        <v>1120973.223262979</v>
+        <v>1248985.699708499</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.266691142520933e-06</v>
+        <v>2.141404224834075e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.99537037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1013989.11213056</v>
+        <v>1129784.257490758</v>
       </c>
     </row>
     <row r="7">
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>788.1111556537026</v>
+        <v>871.4270292903491</v>
       </c>
       <c r="AB7" t="n">
-        <v>1078.32845217571</v>
+        <v>1192.324906122301</v>
       </c>
       <c r="AC7" t="n">
-        <v>975.4142981435477</v>
+        <v>1078.531090520504</v>
       </c>
       <c r="AD7" t="n">
-        <v>788111.1556537026</v>
+        <v>871427.0292903491</v>
       </c>
       <c r="AE7" t="n">
-        <v>1078328.45217571</v>
+        <v>1192324.906122301</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.295996406318216e-06</v>
+        <v>2.190946227299243e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.63271604938272</v>
       </c>
       <c r="AH7" t="n">
-        <v>975414.2981435477</v>
+        <v>1078531.090520504</v>
       </c>
     </row>
     <row r="8">
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>771.1872533471476</v>
+        <v>854.3325347832019</v>
       </c>
       <c r="AB8" t="n">
-        <v>1055.172422410007</v>
+        <v>1168.935464581751</v>
       </c>
       <c r="AC8" t="n">
-        <v>954.4682473589909</v>
+        <v>1057.373904453297</v>
       </c>
       <c r="AD8" t="n">
-        <v>771187.2533471476</v>
+        <v>854332.534783202</v>
       </c>
       <c r="AE8" t="n">
-        <v>1055172.422410007</v>
+        <v>1168935.464581751</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.309966299096133e-06</v>
+        <v>2.21456302417332e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.46682098765432</v>
       </c>
       <c r="AH8" t="n">
-        <v>954468.2473589908</v>
+        <v>1057373.904453296</v>
       </c>
     </row>
     <row r="9">
@@ -4794,28 +4794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>750.3066504088068</v>
+        <v>833.4519318448613</v>
       </c>
       <c r="AB9" t="n">
-        <v>1026.602660282581</v>
+        <v>1140.365702454326</v>
       </c>
       <c r="AC9" t="n">
-        <v>928.6251432310942</v>
+        <v>1031.5308003254</v>
       </c>
       <c r="AD9" t="n">
-        <v>750306.6504088069</v>
+        <v>833451.9318448612</v>
       </c>
       <c r="AE9" t="n">
-        <v>1026602.660282581</v>
+        <v>1140365.702454326</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.327034777114264e-06</v>
+        <v>2.243418133136009e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.27006172839506</v>
       </c>
       <c r="AH9" t="n">
-        <v>928625.1432310941</v>
+        <v>1031530.8003254</v>
       </c>
     </row>
     <row r="10">
@@ -4900,28 +4900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>732.6722499881116</v>
+        <v>805.5737289287283</v>
       </c>
       <c r="AB10" t="n">
-        <v>1002.474495652146</v>
+        <v>1102.221515324962</v>
       </c>
       <c r="AC10" t="n">
-        <v>906.799736768896</v>
+        <v>997.0270408799598</v>
       </c>
       <c r="AD10" t="n">
-        <v>732672.2499881117</v>
+        <v>805573.7289287283</v>
       </c>
       <c r="AE10" t="n">
-        <v>1002474.495652146</v>
+        <v>1102221.515324962</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.337958603045868e-06</v>
+        <v>2.261885402872129e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.14274691358025</v>
       </c>
       <c r="AH10" t="n">
-        <v>906799.736768896</v>
+        <v>997027.0408799598</v>
       </c>
     </row>
     <row r="11">
@@ -5006,28 +5006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>714.5974863172057</v>
+        <v>787.4989652578223</v>
       </c>
       <c r="AB11" t="n">
-        <v>977.7438065953171</v>
+        <v>1077.490826268133</v>
       </c>
       <c r="AC11" t="n">
-        <v>884.4293099659106</v>
+        <v>974.6566140769744</v>
       </c>
       <c r="AD11" t="n">
-        <v>714597.4863172057</v>
+        <v>787498.9652578223</v>
       </c>
       <c r="AE11" t="n">
-        <v>977743.8065953171</v>
+        <v>1077490.826268133</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.350563017582334e-06</v>
+        <v>2.283193791029191e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.00385802469136</v>
       </c>
       <c r="AH11" t="n">
-        <v>884429.3099659106</v>
+        <v>974656.6140769743</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>687.2492453648136</v>
+        <v>770.4797781468887</v>
       </c>
       <c r="AB12" t="n">
-        <v>940.3247368050157</v>
+        <v>1054.204423629409</v>
       </c>
       <c r="AC12" t="n">
-        <v>850.5814636784012</v>
+        <v>953.5926330234189</v>
       </c>
       <c r="AD12" t="n">
-        <v>687249.2453648136</v>
+        <v>770479.7781468887</v>
       </c>
       <c r="AE12" t="n">
-        <v>940324.7368050157</v>
+        <v>1054204.423629409</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.36153936190784e-06</v>
+        <v>2.301749845715965e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.8804012345679</v>
       </c>
       <c r="AH12" t="n">
-        <v>850581.4636784012</v>
+        <v>953592.633023419</v>
       </c>
     </row>
     <row r="13">
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>675.7533028241285</v>
+        <v>758.9838356062033</v>
       </c>
       <c r="AB13" t="n">
-        <v>924.595481055659</v>
+        <v>1038.475167880053</v>
       </c>
       <c r="AC13" t="n">
-        <v>836.353386021614</v>
+        <v>939.3645553666321</v>
       </c>
       <c r="AD13" t="n">
-        <v>675753.3028241284</v>
+        <v>758983.8356062033</v>
       </c>
       <c r="AE13" t="n">
-        <v>924595.481055659</v>
+        <v>1038475.167880053</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.363535060876114e-06</v>
+        <v>2.305123673840834e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.86111111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>836353.3860216141</v>
+        <v>939364.5553666321</v>
       </c>
     </row>
     <row r="14">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>668.1992320978092</v>
+        <v>751.429764879884</v>
       </c>
       <c r="AB14" t="n">
-        <v>914.2596682258293</v>
+        <v>1028.139355050223</v>
       </c>
       <c r="AC14" t="n">
-        <v>827.0040086618586</v>
+        <v>930.0151780068765</v>
       </c>
       <c r="AD14" t="n">
-        <v>668199.2320978092</v>
+        <v>751429.7648798841</v>
       </c>
       <c r="AE14" t="n">
-        <v>914259.6682258293</v>
+        <v>1028139.355050223</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.365478241450485e-06</v>
+        <v>2.308408717015048e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.83796296296297</v>
       </c>
       <c r="AH14" t="n">
-        <v>827004.0086618586</v>
+        <v>930015.1780068765</v>
       </c>
     </row>
     <row r="15">
@@ -5430,28 +5430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>670.2250572862094</v>
+        <v>753.4555900682843</v>
       </c>
       <c r="AB15" t="n">
-        <v>917.0314916216978</v>
+        <v>1030.911178446092</v>
       </c>
       <c r="AC15" t="n">
-        <v>829.5112931231043</v>
+        <v>932.5224624681224</v>
       </c>
       <c r="AD15" t="n">
-        <v>670225.0572862094</v>
+        <v>753455.5900682843</v>
       </c>
       <c r="AE15" t="n">
-        <v>917031.4916216978</v>
+        <v>1030911.178446092</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.365583278238289e-06</v>
+        <v>2.308586286916356e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.83796296296297</v>
       </c>
       <c r="AH15" t="n">
-        <v>829511.2931231044</v>
+        <v>932522.4624681224</v>
       </c>
     </row>
   </sheetData>
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1396.878822420105</v>
+        <v>1527.885522681144</v>
       </c>
       <c r="AB2" t="n">
-        <v>1911.271230779492</v>
+        <v>2090.520377684356</v>
       </c>
       <c r="AC2" t="n">
-        <v>1728.862186999917</v>
+        <v>1891.004046901938</v>
       </c>
       <c r="AD2" t="n">
-        <v>1396878.822420105</v>
+        <v>1527885.522681144</v>
       </c>
       <c r="AE2" t="n">
-        <v>1911271.230779492</v>
+        <v>2090520.377684356</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.798669604787306e-07</v>
+        <v>1.523745689938549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.8233024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>1728862.186999917</v>
+        <v>1891004.046901938</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>920.3442963007327</v>
+        <v>1011.074155549454</v>
       </c>
       <c r="AB3" t="n">
-        <v>1259.25566892342</v>
+        <v>1383.396265066411</v>
       </c>
       <c r="AC3" t="n">
-        <v>1139.074075257799</v>
+        <v>1251.366867137325</v>
       </c>
       <c r="AD3" t="n">
-        <v>920344.2963007328</v>
+        <v>1011074.155549454</v>
       </c>
       <c r="AE3" t="n">
-        <v>1259255.66892342</v>
+        <v>1383396.265066411</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.158523190197496e-06</v>
+        <v>2.006320042744651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.09413580246914</v>
       </c>
       <c r="AH3" t="n">
-        <v>1139074.075257799</v>
+        <v>1251366.867137325</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>798.1590134001891</v>
+        <v>888.8887831403586</v>
       </c>
       <c r="AB4" t="n">
-        <v>1092.076374424652</v>
+        <v>1216.216848098095</v>
       </c>
       <c r="AC4" t="n">
-        <v>987.8501379883804</v>
+        <v>1100.14281908668</v>
       </c>
       <c r="AD4" t="n">
-        <v>798159.0134001891</v>
+        <v>888888.7831403585</v>
       </c>
       <c r="AE4" t="n">
-        <v>1092076.374424652</v>
+        <v>1216216.848098095</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.261966641432538e-06</v>
+        <v>2.185462481376512e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.60879629629629</v>
       </c>
       <c r="AH4" t="n">
-        <v>987850.1379883804</v>
+        <v>1100142.819086679</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>735.0012705940277</v>
+        <v>825.6456994796256</v>
       </c>
       <c r="AB5" t="n">
-        <v>1005.661164394298</v>
+        <v>1129.684870945544</v>
       </c>
       <c r="AC5" t="n">
-        <v>909.6822743188146</v>
+        <v>1021.869332385175</v>
       </c>
       <c r="AD5" t="n">
-        <v>735001.2705940277</v>
+        <v>825645.6994796256</v>
       </c>
       <c r="AE5" t="n">
-        <v>1005661.164394298</v>
+        <v>1129684.870945544</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319555957771374e-06</v>
+        <v>2.285195141539208e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.88348765432099</v>
       </c>
       <c r="AH5" t="n">
-        <v>909682.2743188146</v>
+        <v>1021869.332385175</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>700.6554432002722</v>
+        <v>781.2093937505609</v>
       </c>
       <c r="AB6" t="n">
-        <v>958.6676881231967</v>
+        <v>1068.885157055586</v>
       </c>
       <c r="AC6" t="n">
-        <v>867.173789467269</v>
+        <v>966.8722578559406</v>
       </c>
       <c r="AD6" t="n">
-        <v>700655.4432002722</v>
+        <v>781209.3937505609</v>
       </c>
       <c r="AE6" t="n">
-        <v>958667.6881231967</v>
+        <v>1068885.157055586</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.354652843011835e-06</v>
+        <v>2.345975611789304e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.47453703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>867173.789467269</v>
+        <v>966872.2578559406</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>677.2773362256835</v>
+        <v>757.8312867759722</v>
       </c>
       <c r="AB7" t="n">
-        <v>926.6807307912751</v>
+        <v>1036.898199723665</v>
       </c>
       <c r="AC7" t="n">
-        <v>838.2396224491295</v>
+        <v>937.9380908378009</v>
       </c>
       <c r="AD7" t="n">
-        <v>677277.3362256835</v>
+        <v>757831.2867759722</v>
       </c>
       <c r="AE7" t="n">
-        <v>926680.730791275</v>
+        <v>1036898.199723665</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.375080751449007e-06</v>
+        <v>2.381352479922487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.24305555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>838239.6224491295</v>
+        <v>937938.0908378009</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>653.4860381965922</v>
+        <v>724.1201026121641</v>
       </c>
       <c r="AB8" t="n">
-        <v>894.1284272298803</v>
+        <v>990.7730703182607</v>
       </c>
       <c r="AC8" t="n">
-        <v>808.794065052189</v>
+        <v>896.2150790458228</v>
       </c>
       <c r="AD8" t="n">
-        <v>653486.0381965921</v>
+        <v>724120.1026121641</v>
       </c>
       <c r="AE8" t="n">
-        <v>894128.4272298804</v>
+        <v>990773.0703182607</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.39311815996268e-06</v>
+        <v>2.412589501784765e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.0462962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>808794.065052189</v>
+        <v>896215.0790458228</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>623.2904378469285</v>
+        <v>703.929639743238</v>
       </c>
       <c r="AB9" t="n">
-        <v>852.8134746956006</v>
+        <v>963.1475882806394</v>
       </c>
       <c r="AC9" t="n">
-        <v>771.4221536018808</v>
+        <v>871.2261342412646</v>
       </c>
       <c r="AD9" t="n">
-        <v>623290.4378469285</v>
+        <v>703929.639743238</v>
       </c>
       <c r="AE9" t="n">
-        <v>852813.4746956006</v>
+        <v>963147.5882806394</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.406917864066515e-06</v>
+        <v>2.436487705257713e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.89969135802469</v>
       </c>
       <c r="AH9" t="n">
-        <v>771422.1536018809</v>
+        <v>871226.1342412647</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>608.5553707807387</v>
+        <v>689.1945726770482</v>
       </c>
       <c r="AB10" t="n">
-        <v>832.6523058703601</v>
+        <v>942.9864194553988</v>
       </c>
       <c r="AC10" t="n">
-        <v>753.1851384329433</v>
+        <v>852.989119072327</v>
       </c>
       <c r="AD10" t="n">
-        <v>608555.3707807388</v>
+        <v>689194.5726770482</v>
       </c>
       <c r="AE10" t="n">
-        <v>832652.3058703601</v>
+        <v>942986.4194553988</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.41398070474958e-06</v>
+        <v>2.44871906923993e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.82253086419753</v>
       </c>
       <c r="AH10" t="n">
-        <v>753185.1384329433</v>
+        <v>852989.1190723269</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>610.6969819495218</v>
+        <v>691.3361838458313</v>
       </c>
       <c r="AB11" t="n">
-        <v>835.5825527527056</v>
+        <v>945.9166663377446</v>
       </c>
       <c r="AC11" t="n">
-        <v>755.8357266654651</v>
+        <v>855.6397073048488</v>
       </c>
       <c r="AD11" t="n">
-        <v>610696.9819495218</v>
+        <v>691336.1838458313</v>
       </c>
       <c r="AE11" t="n">
-        <v>835582.5527527056</v>
+        <v>945916.6663377446</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.41186185254466e-06</v>
+        <v>2.445049660045265e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.84567901234568</v>
       </c>
       <c r="AH11" t="n">
-        <v>755835.7266654652</v>
+        <v>855639.7073048488</v>
       </c>
     </row>
   </sheetData>
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>650.4241252091757</v>
+        <v>741.4070996271862</v>
       </c>
       <c r="AB2" t="n">
-        <v>889.9389827984299</v>
+        <v>1014.425902282697</v>
       </c>
       <c r="AC2" t="n">
-        <v>805.0044553173541</v>
+        <v>917.6105179245316</v>
       </c>
       <c r="AD2" t="n">
-        <v>650424.1252091757</v>
+        <v>741407.0996271862</v>
       </c>
       <c r="AE2" t="n">
-        <v>889938.9827984299</v>
+        <v>1014425.902282697</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.310384651470074e-06</v>
+        <v>2.479529741887026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.84722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>805004.4553173541</v>
+        <v>917610.5179245316</v>
       </c>
     </row>
     <row r="3">
@@ -7084,28 +7084,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>505.6558354939127</v>
+        <v>578.5787603956355</v>
       </c>
       <c r="AB3" t="n">
-        <v>691.8606220838172</v>
+        <v>791.6369850667476</v>
       </c>
       <c r="AC3" t="n">
-        <v>625.8304153446187</v>
+        <v>716.084262281463</v>
       </c>
       <c r="AD3" t="n">
-        <v>505655.8354939127</v>
+        <v>578578.7603956355</v>
       </c>
       <c r="AE3" t="n">
-        <v>691860.6220838173</v>
+        <v>791636.9850667475</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.503229137999165e-06</v>
+        <v>2.844433008551038e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.55941358024691</v>
       </c>
       <c r="AH3" t="n">
-        <v>625830.4153446187</v>
+        <v>716084.262281463</v>
       </c>
     </row>
     <row r="4">
@@ -7190,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>472.6078682813957</v>
+        <v>536.4155170789544</v>
       </c>
       <c r="AB4" t="n">
-        <v>646.6429353702368</v>
+        <v>733.947375449849</v>
       </c>
       <c r="AC4" t="n">
-        <v>584.9282411875606</v>
+        <v>663.9004680385259</v>
       </c>
       <c r="AD4" t="n">
-        <v>472607.8682813957</v>
+        <v>536415.5170789544</v>
       </c>
       <c r="AE4" t="n">
-        <v>646642.9353702369</v>
+        <v>733947.3754498491</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.546635819028661e-06</v>
+        <v>2.926567789730363e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.12345679012346</v>
       </c>
       <c r="AH4" t="n">
-        <v>584928.2411875606</v>
+        <v>663900.4680385259</v>
       </c>
     </row>
     <row r="5">
@@ -7296,28 +7296,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>475.5250241459927</v>
+        <v>539.3326729435513</v>
       </c>
       <c r="AB5" t="n">
-        <v>650.6343167200122</v>
+        <v>737.9387567996246</v>
       </c>
       <c r="AC5" t="n">
-        <v>588.5386907032523</v>
+        <v>667.5109175542176</v>
       </c>
       <c r="AD5" t="n">
-        <v>475525.0241459927</v>
+        <v>539332.6729435513</v>
       </c>
       <c r="AE5" t="n">
-        <v>650634.3167200122</v>
+        <v>737938.7567996245</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.546514571316289e-06</v>
+        <v>2.926338362967293e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.12345679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>588538.6907032523</v>
+        <v>667510.9175542176</v>
       </c>
     </row>
   </sheetData>
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>871.5481881097231</v>
+        <v>966.5144958994478</v>
       </c>
       <c r="AB2" t="n">
-        <v>1192.490680964119</v>
+        <v>1322.427772899831</v>
       </c>
       <c r="AC2" t="n">
-        <v>1078.681044044085</v>
+        <v>1196.217122293307</v>
       </c>
       <c r="AD2" t="n">
-        <v>871548.1881097232</v>
+        <v>966514.4958994477</v>
       </c>
       <c r="AE2" t="n">
-        <v>1192490.680964119</v>
+        <v>1322427.772899831</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.138885507717343e-06</v>
+        <v>2.074802057851332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.64506172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>1078681.044044085</v>
+        <v>1196217.122293307</v>
       </c>
     </row>
     <row r="3">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>647.389519175139</v>
+        <v>723.277314060898</v>
       </c>
       <c r="AB3" t="n">
-        <v>885.7869009452909</v>
+        <v>989.6199298412115</v>
       </c>
       <c r="AC3" t="n">
-        <v>801.2486423287953</v>
+        <v>895.1719926774607</v>
       </c>
       <c r="AD3" t="n">
-        <v>647389.5191751389</v>
+        <v>723277.314060898</v>
       </c>
       <c r="AE3" t="n">
-        <v>885786.9009452909</v>
+        <v>989619.9298412115</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.36594344745933e-06</v>
+        <v>2.488452312803105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.38117283950617</v>
       </c>
       <c r="AH3" t="n">
-        <v>801248.6423287953</v>
+        <v>895171.9926774607</v>
       </c>
     </row>
     <row r="4">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>575.0263449343622</v>
+        <v>650.8287989655498</v>
       </c>
       <c r="AB4" t="n">
-        <v>786.776413511124</v>
+        <v>890.4926752848469</v>
       </c>
       <c r="AC4" t="n">
-        <v>711.6875768532532</v>
+        <v>805.5053041699798</v>
       </c>
       <c r="AD4" t="n">
-        <v>575026.3449343622</v>
+        <v>650828.7989655498</v>
       </c>
       <c r="AE4" t="n">
-        <v>786776.413511124</v>
+        <v>890492.6752848469</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.448531060790771e-06</v>
+        <v>2.638909008346227e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.44753086419753</v>
       </c>
       <c r="AH4" t="n">
-        <v>711687.5768532532</v>
+        <v>805505.3041699798</v>
       </c>
     </row>
     <row r="5">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>539.968958977102</v>
+        <v>606.4454639384602</v>
       </c>
       <c r="AB5" t="n">
-        <v>738.8093514216871</v>
+        <v>829.7654382462341</v>
       </c>
       <c r="AC5" t="n">
-        <v>668.2984238474378</v>
+        <v>750.5737894031197</v>
       </c>
       <c r="AD5" t="n">
-        <v>539968.9589771021</v>
+        <v>606445.4639384602</v>
       </c>
       <c r="AE5" t="n">
-        <v>738809.3514216871</v>
+        <v>829765.4382462341</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.484025175509058e-06</v>
+        <v>2.703571576936389e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.07716049382716</v>
       </c>
       <c r="AH5" t="n">
-        <v>668298.4238474378</v>
+        <v>750573.7894031197</v>
       </c>
     </row>
     <row r="6">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>515.3554708107293</v>
+        <v>591.2431761879374</v>
       </c>
       <c r="AB6" t="n">
-        <v>705.132091041995</v>
+        <v>808.9649974683674</v>
       </c>
       <c r="AC6" t="n">
-        <v>637.8352739320517</v>
+        <v>731.7585134994906</v>
       </c>
       <c r="AD6" t="n">
-        <v>515355.4708107293</v>
+        <v>591243.1761879374</v>
       </c>
       <c r="AE6" t="n">
-        <v>705132.091041995</v>
+        <v>808964.9974683675</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.498988380733435e-06</v>
+        <v>2.730831287224399e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.9266975308642</v>
       </c>
       <c r="AH6" t="n">
-        <v>637835.2739320517</v>
+        <v>731758.5134994906</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>507.7084916923379</v>
+        <v>586.8470005413722</v>
       </c>
       <c r="AB2" t="n">
-        <v>694.669156851303</v>
+        <v>802.9499560031551</v>
       </c>
       <c r="AC2" t="n">
-        <v>628.3709074956989</v>
+        <v>726.3175391495545</v>
       </c>
       <c r="AD2" t="n">
-        <v>507708.4916923379</v>
+        <v>586847.0005413721</v>
       </c>
       <c r="AE2" t="n">
-        <v>694669.1568513029</v>
+        <v>802949.9560031551</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.456585479635716e-06</v>
+        <v>2.854438227563264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.67824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>628370.9074956989</v>
+        <v>726317.5391495544</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>431.3834573256996</v>
+        <v>501.6340648616459</v>
       </c>
       <c r="AB3" t="n">
-        <v>590.2378776079989</v>
+        <v>686.3578580767519</v>
       </c>
       <c r="AC3" t="n">
-        <v>533.9064029731547</v>
+        <v>620.8528274112099</v>
       </c>
       <c r="AD3" t="n">
-        <v>431383.4573256996</v>
+        <v>501634.0648616459</v>
       </c>
       <c r="AE3" t="n">
-        <v>590237.8776079989</v>
+        <v>686357.8580767519</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.576844763205536e-06</v>
+        <v>3.090107675762703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.40509259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>533906.4029731548</v>
+        <v>620852.8274112099</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1504.931173268048</v>
+        <v>1637.130016783685</v>
       </c>
       <c r="AB2" t="n">
-        <v>2059.113224142934</v>
+        <v>2239.993514042389</v>
       </c>
       <c r="AC2" t="n">
-        <v>1862.594348014292</v>
+        <v>2026.211676912825</v>
       </c>
       <c r="AD2" t="n">
-        <v>1504931.173268048</v>
+        <v>1637130.016783685</v>
       </c>
       <c r="AE2" t="n">
-        <v>2059113.224142933</v>
+        <v>2239993.514042389</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.435348638923934e-07</v>
+        <v>1.451285881020209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.62577160493827</v>
       </c>
       <c r="AH2" t="n">
-        <v>1862594.348014292</v>
+        <v>2026211.676912825</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>963.9484641436406</v>
+        <v>1055.444571207765</v>
       </c>
       <c r="AB3" t="n">
-        <v>1318.916815046204</v>
+        <v>1444.105825254699</v>
       </c>
       <c r="AC3" t="n">
-        <v>1193.04124532957</v>
+        <v>1306.282392107646</v>
       </c>
       <c r="AD3" t="n">
-        <v>963948.4641436406</v>
+        <v>1055444.571207765</v>
       </c>
       <c r="AE3" t="n">
-        <v>1318916.815046204</v>
+        <v>1444105.825254699</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.129594781672459e-06</v>
+        <v>1.943446593719537e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.38734567901234</v>
       </c>
       <c r="AH3" t="n">
-        <v>1193041.24532957</v>
+        <v>1306282.392107646</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>830.6200670623098</v>
+        <v>922.1160846178828</v>
       </c>
       <c r="AB4" t="n">
-        <v>1136.491020125782</v>
+        <v>1261.679907864728</v>
       </c>
       <c r="AC4" t="n">
-        <v>1028.025912240141</v>
+        <v>1141.26694823699</v>
       </c>
       <c r="AD4" t="n">
-        <v>830620.0670623098</v>
+        <v>922116.0846178829</v>
       </c>
       <c r="AE4" t="n">
-        <v>1136491.020125782</v>
+        <v>1261679.907864728</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.238193097908558e-06</v>
+        <v>2.130287955947007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.77469135802469</v>
       </c>
       <c r="AH4" t="n">
-        <v>1028025.912240141</v>
+        <v>1141266.94823699</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>776.220003879858</v>
+        <v>857.5404044539662</v>
       </c>
       <c r="AB5" t="n">
-        <v>1062.058453718144</v>
+        <v>1173.324613386512</v>
       </c>
       <c r="AC5" t="n">
-        <v>960.6970855036857</v>
+        <v>1061.34415905634</v>
       </c>
       <c r="AD5" t="n">
-        <v>776220.0038798581</v>
+        <v>857540.4044539662</v>
       </c>
       <c r="AE5" t="n">
-        <v>1062058.453718144</v>
+        <v>1173324.613386512</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.295318935056054e-06</v>
+        <v>2.228571885209945e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.03780864197531</v>
       </c>
       <c r="AH5" t="n">
-        <v>960697.0855036856</v>
+        <v>1061344.15905634</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>731.2382674404693</v>
+        <v>812.6439193605978</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000.512457467617</v>
+        <v>1111.895261788634</v>
       </c>
       <c r="AC6" t="n">
-        <v>905.0249527549602</v>
+        <v>1005.777538558327</v>
       </c>
       <c r="AD6" t="n">
-        <v>731238.2674404692</v>
+        <v>812643.9193605979</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000512.457467617</v>
+        <v>1111895.261788634</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.330908170074429e-06</v>
+        <v>2.289802495240861e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.60956790123457</v>
       </c>
       <c r="AH6" t="n">
-        <v>905024.9527549602</v>
+        <v>1005777.538558327</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>709.3009525007645</v>
+        <v>790.5360122203011</v>
       </c>
       <c r="AB7" t="n">
-        <v>970.4968553610821</v>
+        <v>1081.646247907252</v>
       </c>
       <c r="AC7" t="n">
-        <v>877.873997586311</v>
+        <v>978.4154481070268</v>
       </c>
       <c r="AD7" t="n">
-        <v>709300.9525007645</v>
+        <v>790536.0122203011</v>
       </c>
       <c r="AE7" t="n">
-        <v>970496.8553610821</v>
+        <v>1081646.247907252</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.349914221453379e-06</v>
+        <v>2.322502049463119e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.3858024691358</v>
       </c>
       <c r="AH7" t="n">
-        <v>877873.9975863111</v>
+        <v>978415.4481070268</v>
       </c>
     </row>
     <row r="8">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>683.4317002113436</v>
+        <v>754.6617351500071</v>
       </c>
       <c r="AB8" t="n">
-        <v>935.101403107832</v>
+        <v>1032.56147935827</v>
       </c>
       <c r="AC8" t="n">
-        <v>845.8566376182819</v>
+        <v>934.0152609774543</v>
       </c>
       <c r="AD8" t="n">
-        <v>683431.7002113436</v>
+        <v>754661.7351500071</v>
       </c>
       <c r="AE8" t="n">
-        <v>935101.403107832</v>
+        <v>1032561.47935827</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.372312287667666e-06</v>
+        <v>2.361037501464422e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.13503086419753</v>
       </c>
       <c r="AH8" t="n">
-        <v>845856.6376182819</v>
+        <v>934015.2609774544</v>
       </c>
     </row>
     <row r="9">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>653.8756776424324</v>
+        <v>735.1959887079895</v>
       </c>
       <c r="AB9" t="n">
-        <v>894.6615491093581</v>
+        <v>1005.927586308177</v>
       </c>
       <c r="AC9" t="n">
-        <v>809.2763065277309</v>
+        <v>909.9232692991588</v>
       </c>
       <c r="AD9" t="n">
-        <v>653875.6776424324</v>
+        <v>735195.9887079895</v>
       </c>
       <c r="AE9" t="n">
-        <v>894661.5491093581</v>
+        <v>1005927.586308177</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.385664980987722e-06</v>
+        <v>2.384010559388275e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.99228395061728</v>
       </c>
       <c r="AH9" t="n">
-        <v>809276.3065277309</v>
+        <v>909923.2692991588</v>
       </c>
     </row>
     <row r="10">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>632.9861716450266</v>
+        <v>714.3064827105837</v>
       </c>
       <c r="AB10" t="n">
-        <v>866.0796054237447</v>
+        <v>977.3456426225642</v>
       </c>
       <c r="AC10" t="n">
-        <v>783.4221834324625</v>
+        <v>884.0691462038905</v>
       </c>
       <c r="AD10" t="n">
-        <v>632986.1716450267</v>
+        <v>714306.4827105837</v>
       </c>
       <c r="AE10" t="n">
-        <v>866079.6054237448</v>
+        <v>977345.6426225642</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.397887002695999e-06</v>
+        <v>2.405038318052448e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.86111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>783422.1834324625</v>
+        <v>884069.1462038904</v>
       </c>
     </row>
     <row r="11">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>619.859941357218</v>
+        <v>701.180252422775</v>
       </c>
       <c r="AB11" t="n">
-        <v>848.1197180555547</v>
+        <v>959.3857552543741</v>
       </c>
       <c r="AC11" t="n">
-        <v>767.1763625078323</v>
+        <v>867.8233252792603</v>
       </c>
       <c r="AD11" t="n">
-        <v>619859.941357218</v>
+        <v>701180.252422775</v>
       </c>
       <c r="AE11" t="n">
-        <v>848119.7180555547</v>
+        <v>959385.7552543741</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.405155605914577e-06</v>
+        <v>2.417543813293255e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.78395061728395</v>
       </c>
       <c r="AH11" t="n">
-        <v>767176.3625078324</v>
+        <v>867823.3252792603</v>
       </c>
     </row>
     <row r="12">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>626.0462439823672</v>
+        <v>707.3665550479244</v>
       </c>
       <c r="AB12" t="n">
-        <v>856.584090227694</v>
+        <v>967.8501274265135</v>
       </c>
       <c r="AC12" t="n">
-        <v>774.8329068796835</v>
+        <v>875.4798696511114</v>
       </c>
       <c r="AD12" t="n">
-        <v>626046.2439823672</v>
+        <v>707366.5550479244</v>
       </c>
       <c r="AE12" t="n">
-        <v>856584.090227694</v>
+        <v>967850.1274265135</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.400202187424879e-06</v>
+        <v>2.40902154986989e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.83410493827161</v>
       </c>
       <c r="AH12" t="n">
-        <v>774832.9068796835</v>
+        <v>875479.8696511113</v>
       </c>
     </row>
   </sheetData>
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>435.2506824868042</v>
+        <v>504.1052350041539</v>
       </c>
       <c r="AB2" t="n">
-        <v>595.5291856833553</v>
+        <v>689.7390220860636</v>
       </c>
       <c r="AC2" t="n">
-        <v>538.6927160321968</v>
+        <v>623.9112978729665</v>
       </c>
       <c r="AD2" t="n">
-        <v>435250.6824868042</v>
+        <v>504105.2350041539</v>
       </c>
       <c r="AE2" t="n">
-        <v>595529.1856833553</v>
+        <v>689739.0220860636</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.548376987544944e-06</v>
+        <v>3.103969994980114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.05324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>538692.7160321968</v>
+        <v>623911.2978729665</v>
       </c>
     </row>
     <row r="3">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.0494976208648</v>
+        <v>478.9893014842349</v>
       </c>
       <c r="AB3" t="n">
-        <v>561.0478127519675</v>
+        <v>655.3742938073252</v>
       </c>
       <c r="AC3" t="n">
-        <v>507.5021969384696</v>
+        <v>592.8262910299517</v>
       </c>
       <c r="AD3" t="n">
-        <v>410049.4976208648</v>
+        <v>478989.3014842349</v>
       </c>
       <c r="AE3" t="n">
-        <v>561047.8127519675</v>
+        <v>655374.2938073252</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.585556077091903e-06</v>
+        <v>3.178501442633194e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.67901234567901</v>
       </c>
       <c r="AH3" t="n">
-        <v>507502.1969384697</v>
+        <v>592826.2910299517</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1116.498016687928</v>
+        <v>1224.454785875393</v>
       </c>
       <c r="AB2" t="n">
-        <v>1527.641842848577</v>
+        <v>1675.353057167387</v>
       </c>
       <c r="AC2" t="n">
-        <v>1381.8458494259</v>
+        <v>1515.459712764114</v>
       </c>
       <c r="AD2" t="n">
-        <v>1116498.016687928</v>
+        <v>1224454.785875393</v>
       </c>
       <c r="AE2" t="n">
-        <v>1527641.842848577</v>
+        <v>1675353.057167387</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.985605957177312e-07</v>
+        <v>1.768525014958304e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.62808641975309</v>
       </c>
       <c r="AH2" t="n">
-        <v>1381845.8494259</v>
+        <v>1515459.712764114</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>783.4047274867809</v>
+        <v>871.5624009850233</v>
       </c>
       <c r="AB3" t="n">
-        <v>1071.888909524771</v>
+        <v>1192.510127647132</v>
       </c>
       <c r="AC3" t="n">
-        <v>969.5893364052597</v>
+        <v>1078.698634762965</v>
       </c>
       <c r="AD3" t="n">
-        <v>783404.7274867808</v>
+        <v>871562.4009850232</v>
       </c>
       <c r="AE3" t="n">
-        <v>1071888.909524771</v>
+        <v>1192510.127647132</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.254036270299026e-06</v>
+        <v>2.220991418247148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>969589.3364052597</v>
+        <v>1078698.634762965</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>692.7168996040659</v>
+        <v>771.145662212565</v>
       </c>
       <c r="AB4" t="n">
-        <v>947.8058225510416</v>
+        <v>1055.115515584799</v>
       </c>
       <c r="AC4" t="n">
-        <v>857.3485651005963</v>
+        <v>954.4167716413123</v>
       </c>
       <c r="AD4" t="n">
-        <v>692716.8996040659</v>
+        <v>771145.662212565</v>
       </c>
       <c r="AE4" t="n">
-        <v>947805.8225510416</v>
+        <v>1055115.515584799</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.348804087359967e-06</v>
+        <v>2.388832264164768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.0108024691358</v>
       </c>
       <c r="AH4" t="n">
-        <v>857348.5651005963</v>
+        <v>954416.7716413123</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>639.4933754948695</v>
+        <v>717.8367972487969</v>
       </c>
       <c r="AB5" t="n">
-        <v>874.9830488086729</v>
+        <v>982.1759747202331</v>
       </c>
       <c r="AC5" t="n">
-        <v>791.4758946767944</v>
+        <v>888.4384781855715</v>
       </c>
       <c r="AD5" t="n">
-        <v>639493.3754948695</v>
+        <v>717836.7972487969</v>
       </c>
       <c r="AE5" t="n">
-        <v>874983.0488086729</v>
+        <v>982175.974720233</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.398622963428625e-06</v>
+        <v>2.477065195568596e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.43981481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>791475.8946767944</v>
+        <v>888438.4781855715</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>611.0275739029174</v>
+        <v>679.727425621673</v>
       </c>
       <c r="AB6" t="n">
-        <v>836.0348832480292</v>
+        <v>930.0330511931837</v>
       </c>
       <c r="AC6" t="n">
-        <v>756.2448873731647</v>
+        <v>841.2720020968911</v>
       </c>
       <c r="AD6" t="n">
-        <v>611027.5739029174</v>
+        <v>679727.425621673</v>
       </c>
       <c r="AE6" t="n">
-        <v>836034.8832480293</v>
+        <v>930033.0511931838</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.424763879298358e-06</v>
+        <v>2.523362700024312e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.15817901234568</v>
       </c>
       <c r="AH6" t="n">
-        <v>756244.8873731648</v>
+        <v>841272.0020968912</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>570.4294435548285</v>
+        <v>648.8581166547765</v>
       </c>
       <c r="AB7" t="n">
-        <v>780.4867302426702</v>
+        <v>887.7963008068795</v>
       </c>
       <c r="AC7" t="n">
-        <v>705.9981721283146</v>
+        <v>803.0662678878041</v>
       </c>
       <c r="AD7" t="n">
-        <v>570429.4435548285</v>
+        <v>648858.1166547765</v>
       </c>
       <c r="AE7" t="n">
-        <v>780486.7302426702</v>
+        <v>887796.3008068794</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.449785269863178e-06</v>
+        <v>2.567677441976572e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>705998.1721283146</v>
+        <v>803066.2678878041</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>562.9647435085576</v>
+        <v>641.3934166085055</v>
       </c>
       <c r="AB8" t="n">
-        <v>770.2731983200383</v>
+        <v>877.5827688842476</v>
       </c>
       <c r="AC8" t="n">
-        <v>696.7594053575967</v>
+        <v>793.8275011170862</v>
       </c>
       <c r="AD8" t="n">
-        <v>562964.7435085576</v>
+        <v>641393.4166085055</v>
       </c>
       <c r="AE8" t="n">
-        <v>770273.1983200383</v>
+        <v>877582.7688842475</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.454655204939553e-06</v>
+        <v>2.576302458866609e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.84567901234568</v>
       </c>
       <c r="AH8" t="n">
-        <v>696759.4053575967</v>
+        <v>793827.5011170862</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>565.421273757674</v>
+        <v>643.8499468576221</v>
       </c>
       <c r="AB9" t="n">
-        <v>773.6343313813453</v>
+        <v>880.9439019455547</v>
       </c>
       <c r="AC9" t="n">
-        <v>699.7997565969125</v>
+        <v>796.867852356402</v>
       </c>
       <c r="AD9" t="n">
-        <v>565421.273757674</v>
+        <v>643849.946857622</v>
       </c>
       <c r="AE9" t="n">
-        <v>773634.3313813453</v>
+        <v>880943.9019455547</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.454207394817587e-06</v>
+        <v>2.575509353865226e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.84953703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>699799.7565969125</v>
+        <v>796867.852356402</v>
       </c>
     </row>
   </sheetData>
@@ -11516,28 +11516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1306.563673584485</v>
+        <v>1416.587871725118</v>
       </c>
       <c r="AB2" t="n">
-        <v>1787.698059719437</v>
+        <v>1938.2380215405</v>
       </c>
       <c r="AC2" t="n">
-        <v>1617.082665949798</v>
+        <v>1753.255305098823</v>
       </c>
       <c r="AD2" t="n">
-        <v>1306563.673584485</v>
+        <v>1416587.871725118</v>
       </c>
       <c r="AE2" t="n">
-        <v>1787698.059719437</v>
+        <v>1938238.0215405</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.169085373406813e-07</v>
+        <v>1.599008425398198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.07484567901234</v>
       </c>
       <c r="AH2" t="n">
-        <v>1617082.665949798</v>
+        <v>1753255.305098823</v>
       </c>
     </row>
     <row r="3">
@@ -11622,28 +11622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>865.3054194549194</v>
+        <v>955.3251446993501</v>
       </c>
       <c r="AB3" t="n">
-        <v>1183.949049479101</v>
+        <v>1307.118008948522</v>
       </c>
       <c r="AC3" t="n">
-        <v>1070.954613879742</v>
+        <v>1182.368500726122</v>
       </c>
       <c r="AD3" t="n">
-        <v>865305.4194549194</v>
+        <v>955325.1446993501</v>
       </c>
       <c r="AE3" t="n">
-        <v>1183949.049479101</v>
+        <v>1307118.008948522</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.190862248551155e-06</v>
+        <v>2.076759776329171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.77006172839506</v>
       </c>
       <c r="AH3" t="n">
-        <v>1070954.613879742</v>
+        <v>1182368.500726122</v>
       </c>
     </row>
     <row r="4">
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>761.9406525329621</v>
+        <v>841.8729347375465</v>
       </c>
       <c r="AB4" t="n">
-        <v>1042.5208152448</v>
+        <v>1151.887690120525</v>
       </c>
       <c r="AC4" t="n">
-        <v>943.0240918249897</v>
+        <v>1041.953145659949</v>
       </c>
       <c r="AD4" t="n">
-        <v>761940.652532962</v>
+        <v>841872.9347375465</v>
       </c>
       <c r="AE4" t="n">
-        <v>1042520.8152448</v>
+        <v>1151887.690120525</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.290845755165108e-06</v>
+        <v>2.251122281383659e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.39274691358025</v>
       </c>
       <c r="AH4" t="n">
-        <v>943024.0918249896</v>
+        <v>1041953.145659949</v>
       </c>
     </row>
     <row r="5">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>704.1014408426967</v>
+        <v>784.118974393302</v>
       </c>
       <c r="AB5" t="n">
-        <v>963.3826541242488</v>
+        <v>1072.866173652623</v>
       </c>
       <c r="AC5" t="n">
-        <v>871.4387657306769</v>
+        <v>970.473331816348</v>
       </c>
       <c r="AD5" t="n">
-        <v>704101.4408426967</v>
+        <v>784118.974393302</v>
       </c>
       <c r="AE5" t="n">
-        <v>963382.6541242488</v>
+        <v>1072866.173652623</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.343552365069666e-06</v>
+        <v>2.343038006757966e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.74845679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>871438.7657306769</v>
+        <v>970473.331816348</v>
       </c>
     </row>
     <row r="6">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>667.9183489103439</v>
+        <v>747.7652902603568</v>
       </c>
       <c r="AB6" t="n">
-        <v>913.8753514570473</v>
+        <v>1023.125459210575</v>
       </c>
       <c r="AC6" t="n">
-        <v>826.6563705460974</v>
+        <v>925.4798013491177</v>
       </c>
       <c r="AD6" t="n">
-        <v>667918.3489103438</v>
+        <v>747765.2902603567</v>
       </c>
       <c r="AE6" t="n">
-        <v>913875.3514570473</v>
+        <v>1023125.459210575</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.381779739787123e-06</v>
+        <v>2.409703210281267e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>826656.3705460974</v>
+        <v>925479.8013491177</v>
       </c>
     </row>
     <row r="7">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>645.6292221315171</v>
+        <v>715.6446534968476</v>
       </c>
       <c r="AB7" t="n">
-        <v>883.378384871383</v>
+        <v>979.1765869282591</v>
       </c>
       <c r="AC7" t="n">
-        <v>799.0699916486077</v>
+        <v>885.7253477547963</v>
       </c>
       <c r="AD7" t="n">
-        <v>645629.222131517</v>
+        <v>715644.6534968476</v>
       </c>
       <c r="AE7" t="n">
-        <v>883378.384871383</v>
+        <v>979176.5869282591</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.399659401419679e-06</v>
+        <v>2.440883778930616e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.11574074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>799069.9916486077</v>
+        <v>885725.3477547963</v>
       </c>
     </row>
     <row r="8">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>613.2675193307125</v>
+        <v>693.1997120267461</v>
       </c>
       <c r="AB8" t="n">
-        <v>839.0996754017565</v>
+        <v>948.4664278079332</v>
       </c>
       <c r="AC8" t="n">
-        <v>759.0171800652031</v>
+        <v>857.9461231189355</v>
       </c>
       <c r="AD8" t="n">
-        <v>613267.5193307125</v>
+        <v>693199.712026746</v>
       </c>
       <c r="AE8" t="n">
-        <v>839099.6754017565</v>
+        <v>948466.4278079332</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.414906474836398e-06</v>
+        <v>2.467473343607054e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.9537037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>759017.1800652031</v>
+        <v>857946.1231189355</v>
       </c>
     </row>
     <row r="9">
@@ -12258,28 +12258,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>593.7978395333267</v>
+        <v>673.7300322293602</v>
       </c>
       <c r="AB9" t="n">
-        <v>812.4604005613215</v>
+        <v>921.8271529674983</v>
       </c>
       <c r="AC9" t="n">
-        <v>734.9203202270822</v>
+        <v>833.8492632808146</v>
       </c>
       <c r="AD9" t="n">
-        <v>593797.8395333267</v>
+        <v>673730.0322293602</v>
       </c>
       <c r="AE9" t="n">
-        <v>812460.4005613215</v>
+        <v>921827.1529674983</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.427027349746811e-06</v>
+        <v>2.488611091065661e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>734920.3202270822</v>
+        <v>833849.2632808146</v>
       </c>
     </row>
     <row r="10">
@@ -12364,28 +12364,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>594.344665590441</v>
+        <v>674.2768582864744</v>
       </c>
       <c r="AB10" t="n">
-        <v>813.2085920969283</v>
+        <v>922.575344503105</v>
       </c>
       <c r="AC10" t="n">
-        <v>735.597105412624</v>
+        <v>834.5260484663565</v>
       </c>
       <c r="AD10" t="n">
-        <v>594344.665590441</v>
+        <v>674276.8582864744</v>
       </c>
       <c r="AE10" t="n">
-        <v>813208.5920969283</v>
+        <v>922575.344503105</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.426972504158981e-06</v>
+        <v>2.488515445149559e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>735597.1054126241</v>
+        <v>834526.0484663566</v>
       </c>
     </row>
   </sheetData>
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1741.673990006123</v>
+        <v>1875.975267870145</v>
       </c>
       <c r="AB2" t="n">
-        <v>2383.035190359917</v>
+        <v>2566.792123687687</v>
       </c>
       <c r="AC2" t="n">
-        <v>2155.601656402862</v>
+        <v>2321.821085918306</v>
       </c>
       <c r="AD2" t="n">
-        <v>1741673.990006123</v>
+        <v>1875975.267870144</v>
       </c>
       <c r="AE2" t="n">
-        <v>2383035.190359917</v>
+        <v>2566792.123687687</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.752274082937668e-07</v>
+        <v>1.317835214834063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.34645061728395</v>
       </c>
       <c r="AH2" t="n">
-        <v>2155601.656402862</v>
+        <v>2321821.085918306</v>
       </c>
     </row>
     <row r="3">
@@ -12767,28 +12767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1066.843268809951</v>
+        <v>1159.880186233147</v>
       </c>
       <c r="AB3" t="n">
-        <v>1459.702026189058</v>
+        <v>1586.99924110659</v>
       </c>
       <c r="AC3" t="n">
-        <v>1320.390113514234</v>
+        <v>1435.5382609028</v>
       </c>
       <c r="AD3" t="n">
-        <v>1066843.268809951</v>
+        <v>1159880.186233147</v>
       </c>
       <c r="AE3" t="n">
-        <v>1459702.026189058</v>
+        <v>1586999.24110659</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.072634372224003e-06</v>
+        <v>1.823407342458876e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.03935185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>1320390.113514234</v>
+        <v>1435538.2609028</v>
       </c>
     </row>
     <row r="4">
@@ -12873,28 +12873,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>913.1948159526585</v>
+        <v>1006.061051666711</v>
       </c>
       <c r="AB4" t="n">
-        <v>1249.473434498372</v>
+        <v>1376.537115171508</v>
       </c>
       <c r="AC4" t="n">
-        <v>1130.225443556826</v>
+        <v>1245.162344881514</v>
       </c>
       <c r="AD4" t="n">
-        <v>913194.8159526584</v>
+        <v>1006061.051666711</v>
       </c>
       <c r="AE4" t="n">
-        <v>1249473.434498372</v>
+        <v>1376537.115171508</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.186451562051345e-06</v>
+        <v>2.016889021774175e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.21450617283951</v>
       </c>
       <c r="AH4" t="n">
-        <v>1130225.443556826</v>
+        <v>1245162.344881514</v>
       </c>
     </row>
     <row r="5">
@@ -12979,28 +12979,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>839.6654321060099</v>
+        <v>922.2795833507843</v>
       </c>
       <c r="AB5" t="n">
-        <v>1148.867287631914</v>
+        <v>1261.903614044139</v>
       </c>
       <c r="AC5" t="n">
-        <v>1039.221006145689</v>
+        <v>1141.469304212611</v>
       </c>
       <c r="AD5" t="n">
-        <v>839665.4321060099</v>
+        <v>922279.5833507843</v>
       </c>
       <c r="AE5" t="n">
-        <v>1148867.287631914</v>
+        <v>1261903.614044139</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.24807165924159e-06</v>
+        <v>2.12163910304069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.36574074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>1039221.006145689</v>
+        <v>1141469.304212611</v>
       </c>
     </row>
     <row r="6">
@@ -13085,28 +13085,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>791.0442744070564</v>
+        <v>883.9104206125572</v>
       </c>
       <c r="AB6" t="n">
-        <v>1082.341674654116</v>
+        <v>1209.405232857703</v>
       </c>
       <c r="AC6" t="n">
-        <v>979.0445043012071</v>
+        <v>1093.981294844668</v>
       </c>
       <c r="AD6" t="n">
-        <v>791044.2744070564</v>
+        <v>883910.4206125572</v>
       </c>
       <c r="AE6" t="n">
-        <v>1082341.674654116</v>
+        <v>1209405.232857703</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.2863989361881e-06</v>
+        <v>2.186792933656633e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.87577160493827</v>
       </c>
       <c r="AH6" t="n">
-        <v>979044.5043012071</v>
+        <v>1093981.294844668</v>
       </c>
     </row>
     <row r="7">
@@ -13191,28 +13191,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>752.8998533733965</v>
+        <v>835.4286637635992</v>
       </c>
       <c r="AB7" t="n">
-        <v>1030.150794982774</v>
+        <v>1143.0703542728</v>
       </c>
       <c r="AC7" t="n">
-        <v>931.834648935338</v>
+        <v>1033.977323970322</v>
       </c>
       <c r="AD7" t="n">
-        <v>752899.8533733964</v>
+        <v>835428.6637635991</v>
       </c>
       <c r="AE7" t="n">
-        <v>1030150.794982773</v>
+        <v>1143070.3542728</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.322449869338062e-06</v>
+        <v>2.24807713068627e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.44367283950617</v>
       </c>
       <c r="AH7" t="n">
-        <v>931834.648935338</v>
+        <v>1033977.323970322</v>
       </c>
     </row>
     <row r="8">
@@ -13297,28 +13297,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>739.9584454364383</v>
+        <v>822.487255826641</v>
       </c>
       <c r="AB8" t="n">
-        <v>1012.443789708804</v>
+        <v>1125.36334899883</v>
       </c>
       <c r="AC8" t="n">
-        <v>915.8175753927781</v>
+        <v>1017.960250427762</v>
       </c>
       <c r="AD8" t="n">
-        <v>739958.4454364383</v>
+        <v>822487.255826641</v>
       </c>
       <c r="AE8" t="n">
-        <v>1012443.789708804</v>
+        <v>1125363.34899883</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.332084626802517e-06</v>
+        <v>2.264455579819007e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.33179012345679</v>
       </c>
       <c r="AH8" t="n">
-        <v>915817.575392778</v>
+        <v>1017960.250427762</v>
       </c>
     </row>
     <row r="9">
@@ -13403,28 +13403,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>721.2673343483615</v>
+        <v>793.629401123858</v>
       </c>
       <c r="AB9" t="n">
-        <v>986.8697869244726</v>
+        <v>1085.878759075785</v>
       </c>
       <c r="AC9" t="n">
-        <v>892.6843195408452</v>
+        <v>982.2440143500022</v>
       </c>
       <c r="AD9" t="n">
-        <v>721267.3343483615</v>
+        <v>793629.4011238579</v>
       </c>
       <c r="AE9" t="n">
-        <v>986869.7869244725</v>
+        <v>1085878.759075786</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.345848566037451e-06</v>
+        <v>2.287853364294345e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.17361111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>892684.3195408452</v>
+        <v>982244.0143500022</v>
       </c>
     </row>
     <row r="10">
@@ -13509,28 +13509,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>704.443925900172</v>
+        <v>776.8059926756684</v>
       </c>
       <c r="AB10" t="n">
-        <v>963.8512572892604</v>
+        <v>1062.860229440574</v>
       </c>
       <c r="AC10" t="n">
-        <v>871.8626460673086</v>
+        <v>961.4223408764655</v>
       </c>
       <c r="AD10" t="n">
-        <v>704443.925900172</v>
+        <v>776805.9926756684</v>
       </c>
       <c r="AE10" t="n">
-        <v>963851.2572892604</v>
+        <v>1062860.229440574</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.357547914387145e-06</v>
+        <v>2.307741481098383e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.0462962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>871862.6460673086</v>
+        <v>961422.3408764654</v>
       </c>
     </row>
     <row r="11">
@@ -13615,28 +13615,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>676.2051631166344</v>
+        <v>758.8192248528577</v>
       </c>
       <c r="AB11" t="n">
-        <v>925.2137362425351</v>
+        <v>1038.249940185211</v>
       </c>
       <c r="AC11" t="n">
-        <v>836.9126358011814</v>
+        <v>939.1608230868773</v>
       </c>
       <c r="AD11" t="n">
-        <v>676205.1631166344</v>
+        <v>758819.2248528576</v>
       </c>
       <c r="AE11" t="n">
-        <v>925213.7362425351</v>
+        <v>1038249.940185211</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.367288548307253e-06</v>
+        <v>2.324299913188622e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.93827160493827</v>
       </c>
       <c r="AH11" t="n">
-        <v>836912.6358011814</v>
+        <v>939160.8230868772</v>
       </c>
     </row>
     <row r="12">
@@ -13721,28 +13721,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>664.0155294619947</v>
+        <v>746.6295911982178</v>
       </c>
       <c r="AB12" t="n">
-        <v>908.5353417075737</v>
+        <v>1021.57154565025</v>
       </c>
       <c r="AC12" t="n">
-        <v>821.8260038323631</v>
+        <v>924.0741911180587</v>
       </c>
       <c r="AD12" t="n">
-        <v>664015.5294619947</v>
+        <v>746629.5911982178</v>
       </c>
       <c r="AE12" t="n">
-        <v>908535.3417075737</v>
+        <v>1021571.54565025</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.371100100710773e-06</v>
+        <v>2.330779299658716e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>821826.0038323631</v>
+        <v>924074.1911180587</v>
       </c>
     </row>
     <row r="13">
@@ -13827,28 +13827,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>654.0813675335652</v>
+        <v>736.6954292697884</v>
       </c>
       <c r="AB13" t="n">
-        <v>894.9429830928035</v>
+        <v>1007.97918703548</v>
       </c>
       <c r="AC13" t="n">
-        <v>809.5308808467912</v>
+        <v>911.7790681324871</v>
       </c>
       <c r="AD13" t="n">
-        <v>654081.3675335651</v>
+        <v>736695.4292697884</v>
       </c>
       <c r="AE13" t="n">
-        <v>894942.9830928035</v>
+        <v>1007979.18703548</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.37687036754388e-06</v>
+        <v>2.340588370842608e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.83410493827161</v>
       </c>
       <c r="AH13" t="n">
-        <v>809530.8808467912</v>
+        <v>911779.068132487</v>
       </c>
     </row>
     <row r="14">
@@ -13933,28 +13933,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>656.5561299007902</v>
+        <v>739.1701916370134</v>
       </c>
       <c r="AB14" t="n">
-        <v>898.3290621424509</v>
+        <v>1011.365266085127</v>
       </c>
       <c r="AC14" t="n">
-        <v>812.5937972643322</v>
+        <v>914.841984550028</v>
       </c>
       <c r="AD14" t="n">
-        <v>656556.1299007902</v>
+        <v>739170.1916370135</v>
       </c>
       <c r="AE14" t="n">
-        <v>898329.0621424508</v>
+        <v>1011365.266085127</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.376764491088226e-06</v>
+        <v>2.340408387885105e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.83410493827161</v>
       </c>
       <c r="AH14" t="n">
-        <v>812593.7972643322</v>
+        <v>914841.984550028</v>
       </c>
     </row>
   </sheetData>
@@ -14230,28 +14230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>953.2950932441058</v>
+        <v>1049.291305509625</v>
       </c>
       <c r="AB2" t="n">
-        <v>1304.340402987908</v>
+        <v>1435.686655663581</v>
       </c>
       <c r="AC2" t="n">
-        <v>1179.855985579994</v>
+        <v>1298.666736245925</v>
       </c>
       <c r="AD2" t="n">
-        <v>953295.0932441058</v>
+        <v>1049291.305509625</v>
       </c>
       <c r="AE2" t="n">
-        <v>1304340.402987908</v>
+        <v>1435686.655663581</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.089238379558427e-06</v>
+        <v>1.964154555651316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.28549382716049</v>
       </c>
       <c r="AH2" t="n">
-        <v>1179855.985579994</v>
+        <v>1298666.736245925</v>
       </c>
     </row>
     <row r="3">
@@ -14336,28 +14336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>688.2808845294746</v>
+        <v>774.668860925289</v>
       </c>
       <c r="AB3" t="n">
-        <v>941.7362710228126</v>
+        <v>1059.936111496105</v>
       </c>
       <c r="AC3" t="n">
-        <v>851.8582830515525</v>
+        <v>958.7772966445922</v>
       </c>
       <c r="AD3" t="n">
-        <v>688280.8845294747</v>
+        <v>774668.860925289</v>
       </c>
       <c r="AE3" t="n">
-        <v>941736.2710228126</v>
+        <v>1059936.111496106</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.32794417723441e-06</v>
+        <v>2.394597596187343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.63966049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>851858.2830515525</v>
+        <v>958777.2966445922</v>
       </c>
     </row>
     <row r="4">
@@ -14442,28 +14442,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>612.1355967037999</v>
+        <v>689.000767593032</v>
       </c>
       <c r="AB4" t="n">
-        <v>837.5509289267128</v>
+        <v>942.7212467893711</v>
       </c>
       <c r="AC4" t="n">
-        <v>757.6162437800583</v>
+        <v>852.7492541133727</v>
       </c>
       <c r="AD4" t="n">
-        <v>612135.5967037999</v>
+        <v>689000.767593032</v>
       </c>
       <c r="AE4" t="n">
-        <v>837550.9289267128</v>
+        <v>942721.2467893711</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.413793503222006e-06</v>
+        <v>2.54940424632254e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.62885802469136</v>
       </c>
       <c r="AH4" t="n">
-        <v>757616.2437800583</v>
+        <v>852749.2541133726</v>
       </c>
     </row>
     <row r="5">
@@ -14548,28 +14548,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>568.9074113486877</v>
+        <v>636.1645253853167</v>
       </c>
       <c r="AB5" t="n">
-        <v>778.4042186309061</v>
+        <v>870.4283692302806</v>
       </c>
       <c r="AC5" t="n">
-        <v>704.1144125019542</v>
+        <v>787.3559073248308</v>
       </c>
       <c r="AD5" t="n">
-        <v>568907.4113486877</v>
+        <v>636164.5253853167</v>
       </c>
       <c r="AE5" t="n">
-        <v>778404.2186309062</v>
+        <v>870428.3692302806</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.463447516318233e-06</v>
+        <v>2.638942182057841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.10030864197531</v>
       </c>
       <c r="AH5" t="n">
-        <v>704114.4125019542</v>
+        <v>787355.9073248308</v>
       </c>
     </row>
     <row r="6">
@@ -14654,28 +14654,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>533.2953513474857</v>
+        <v>610.0751813821461</v>
       </c>
       <c r="AB6" t="n">
-        <v>729.6782270440566</v>
+        <v>834.7317777845172</v>
       </c>
       <c r="AC6" t="n">
-        <v>660.0387611647949</v>
+        <v>755.0661484661704</v>
       </c>
       <c r="AD6" t="n">
-        <v>533295.3513474858</v>
+        <v>610075.1813821461</v>
       </c>
       <c r="AE6" t="n">
-        <v>729678.2270440566</v>
+        <v>834731.7777845173</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.482976949381456e-06</v>
+        <v>2.674158371314747e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.89969135802469</v>
       </c>
       <c r="AH6" t="n">
-        <v>660038.7611647949</v>
+        <v>755066.1484661704</v>
       </c>
     </row>
     <row r="7">
@@ -14760,28 +14760,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>533.7677126025096</v>
+        <v>610.5475426371701</v>
       </c>
       <c r="AB7" t="n">
-        <v>730.3245325522882</v>
+        <v>835.3780832927488</v>
       </c>
       <c r="AC7" t="n">
-        <v>660.6233841824163</v>
+        <v>755.6507714837919</v>
       </c>
       <c r="AD7" t="n">
-        <v>533767.7126025097</v>
+        <v>610547.5426371701</v>
       </c>
       <c r="AE7" t="n">
-        <v>730324.5325522883</v>
+        <v>835378.0832927488</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.482518780863844e-06</v>
+        <v>2.67333218505652e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.90354938271605</v>
       </c>
       <c r="AH7" t="n">
-        <v>660623.3841824164</v>
+        <v>755650.7714837919</v>
       </c>
     </row>
   </sheetData>
@@ -15057,28 +15057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>725.7539452311381</v>
+        <v>808.9341783804038</v>
       </c>
       <c r="AB2" t="n">
-        <v>993.0085658695903</v>
+        <v>1106.819430517311</v>
       </c>
       <c r="AC2" t="n">
-        <v>898.2372220392712</v>
+        <v>1001.186137499565</v>
       </c>
       <c r="AD2" t="n">
-        <v>725753.9452311381</v>
+        <v>808934.1783804038</v>
       </c>
       <c r="AE2" t="n">
-        <v>993008.5658695903</v>
+        <v>1106819.430517311</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.248392108158024e-06</v>
+        <v>2.329100634351461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>898237.2220392711</v>
+        <v>1001186.137499565</v>
       </c>
     </row>
     <row r="3">
@@ -15163,28 +15163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>551.7252909886087</v>
+        <v>634.8200937747516</v>
       </c>
       <c r="AB3" t="n">
-        <v>754.8948835325942</v>
+        <v>868.5888585885689</v>
       </c>
       <c r="AC3" t="n">
-        <v>682.8487753498661</v>
+        <v>785.6919569969947</v>
       </c>
       <c r="AD3" t="n">
-        <v>551725.2909886086</v>
+        <v>634820.0937747516</v>
       </c>
       <c r="AE3" t="n">
-        <v>754894.8835325942</v>
+        <v>868588.8585885689</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.452957554916786e-06</v>
+        <v>2.710754370143832e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.84104938271605</v>
       </c>
       <c r="AH3" t="n">
-        <v>682848.775349866</v>
+        <v>785691.9569969947</v>
       </c>
     </row>
     <row r="4">
@@ -15269,28 +15269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>496.0183649085369</v>
+        <v>560.7804979134216</v>
       </c>
       <c r="AB4" t="n">
-        <v>678.6742096537113</v>
+        <v>767.2846171346584</v>
       </c>
       <c r="AC4" t="n">
-        <v>613.902495609596</v>
+        <v>694.0560501660498</v>
       </c>
       <c r="AD4" t="n">
-        <v>496018.3649085368</v>
+        <v>560780.4979134216</v>
       </c>
       <c r="AE4" t="n">
-        <v>678674.2096537113</v>
+        <v>767284.6171346585</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.526336236606281e-06</v>
+        <v>2.847655535213712e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.08101851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>613902.495609596</v>
+        <v>694056.0501660497</v>
       </c>
     </row>
     <row r="5">
@@ -15375,28 +15375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>493.324396345182</v>
+        <v>558.0865293500668</v>
       </c>
       <c r="AB5" t="n">
-        <v>674.9882030158242</v>
+        <v>763.5986104967714</v>
       </c>
       <c r="AC5" t="n">
-        <v>610.568276271886</v>
+        <v>690.7218308283395</v>
       </c>
       <c r="AD5" t="n">
-        <v>493324.396345182</v>
+        <v>558086.5293500668</v>
       </c>
       <c r="AE5" t="n">
-        <v>674988.2030158242</v>
+        <v>763598.6104967714</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.527946988155563e-06</v>
+        <v>2.850660682739635e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.06172839506173</v>
       </c>
       <c r="AH5" t="n">
-        <v>610568.2762718861</v>
+        <v>690721.8308283396</v>
       </c>
     </row>
   </sheetData>
@@ -28093,28 +28093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>584.6393135548952</v>
+        <v>665.1701251727372</v>
       </c>
       <c r="AB2" t="n">
-        <v>799.9293012719816</v>
+        <v>910.1151104961799</v>
       </c>
       <c r="AC2" t="n">
-        <v>723.5851714664085</v>
+        <v>823.2550017050037</v>
       </c>
       <c r="AD2" t="n">
-        <v>584639.3135548952</v>
+        <v>665170.1251727373</v>
       </c>
       <c r="AE2" t="n">
-        <v>799929.3012719816</v>
+        <v>910115.1104961799</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.378234209948217e-06</v>
+        <v>2.65039549562726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.27623456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>723585.1714664085</v>
+        <v>823255.0017050037</v>
       </c>
     </row>
     <row r="3">
@@ -28199,28 +28199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>458.2515911089222</v>
+        <v>529.8155800802717</v>
       </c>
       <c r="AB3" t="n">
-        <v>627.0000435886096</v>
+        <v>724.9170504795807</v>
       </c>
       <c r="AC3" t="n">
-        <v>567.1600394286002</v>
+        <v>655.7319846092792</v>
       </c>
       <c r="AD3" t="n">
-        <v>458251.5911089223</v>
+        <v>529815.5800802717</v>
       </c>
       <c r="AE3" t="n">
-        <v>627000.0435886097</v>
+        <v>724917.0504795806</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.556461066990731e-06</v>
+        <v>2.993132351014872e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.29706790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>567160.0394286001</v>
+        <v>655731.9846092792</v>
       </c>
     </row>
     <row r="4">
@@ -28305,28 +28305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>454.5387517523279</v>
+        <v>526.1027407236774</v>
       </c>
       <c r="AB4" t="n">
-        <v>621.9199729820052</v>
+        <v>719.8369798729761</v>
       </c>
       <c r="AC4" t="n">
-        <v>562.5648036307662</v>
+        <v>651.1367488114452</v>
       </c>
       <c r="AD4" t="n">
-        <v>454538.7517523279</v>
+        <v>526102.7407236773</v>
       </c>
       <c r="AE4" t="n">
-        <v>621919.9729820052</v>
+        <v>719836.9798729762</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.562262079650702e-06</v>
+        <v>3.004287913482474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.2391975308642</v>
       </c>
       <c r="AH4" t="n">
-        <v>562564.8036307661</v>
+        <v>651136.7488114452</v>
       </c>
     </row>
   </sheetData>
@@ -28602,28 +28602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.6986578299632</v>
+        <v>456.8299404847637</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.2028959343689</v>
+        <v>625.0548784858368</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.3147599013566</v>
+        <v>565.4005181531795</v>
       </c>
       <c r="AD2" t="n">
-        <v>389698.6578299632</v>
+        <v>456829.9404847637</v>
       </c>
       <c r="AE2" t="n">
-        <v>533202.8959343689</v>
+        <v>625054.8784858368</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.579879390573952e-06</v>
+        <v>3.258658158832817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.17283950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>482314.7599013567</v>
+        <v>565400.5181531796</v>
       </c>
     </row>
   </sheetData>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1207.743704513913</v>
+        <v>1316.670938839954</v>
       </c>
       <c r="AB2" t="n">
-        <v>1652.488218407732</v>
+        <v>1801.527265943042</v>
       </c>
       <c r="AC2" t="n">
-        <v>1494.777062124679</v>
+        <v>1629.592032140836</v>
       </c>
       <c r="AD2" t="n">
-        <v>1207743.704513913</v>
+        <v>1316670.938839954</v>
       </c>
       <c r="AE2" t="n">
-        <v>1652488.218407732</v>
+        <v>1801527.265943042</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.574698122658615e-07</v>
+        <v>1.682236690096699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.31867283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>1494777.062124679</v>
+        <v>1629592.032140836</v>
       </c>
     </row>
     <row r="3">
@@ -29005,28 +29005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>824.5831690514646</v>
+        <v>913.6046105825588</v>
       </c>
       <c r="AB3" t="n">
-        <v>1128.2310699382</v>
+        <v>1250.034133589865</v>
       </c>
       <c r="AC3" t="n">
-        <v>1020.554280105549</v>
+        <v>1130.732630313973</v>
       </c>
       <c r="AD3" t="n">
-        <v>824583.1690514645</v>
+        <v>913604.6105825589</v>
       </c>
       <c r="AE3" t="n">
-        <v>1128231.0699382</v>
+        <v>1250034.133589865</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.221251776165777e-06</v>
+        <v>2.145691195057097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1020554.280105549</v>
+        <v>1130732.630313973</v>
       </c>
     </row>
     <row r="4">
@@ -29111,28 +29111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>727.9761727870574</v>
+        <v>807.1727292025358</v>
       </c>
       <c r="AB4" t="n">
-        <v>996.0491156493594</v>
+        <v>1104.409338042499</v>
       </c>
       <c r="AC4" t="n">
-        <v>900.9875860154975</v>
+        <v>999.0060608679631</v>
       </c>
       <c r="AD4" t="n">
-        <v>727976.1727870574</v>
+        <v>807172.7292025358</v>
       </c>
       <c r="AE4" t="n">
-        <v>996049.1156493593</v>
+        <v>1104409.338042499</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.319075998813246e-06</v>
+        <v>2.317564495300705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.19984567901234</v>
       </c>
       <c r="AH4" t="n">
-        <v>900987.5860154976</v>
+        <v>999006.0608679631</v>
       </c>
     </row>
     <row r="5">
@@ -29217,28 +29217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>672.3400645625268</v>
+        <v>751.621872324026</v>
       </c>
       <c r="AB5" t="n">
-        <v>919.9253378846914</v>
+        <v>1028.40220493048</v>
       </c>
       <c r="AC5" t="n">
-        <v>832.1289547602964</v>
+        <v>930.252941863474</v>
       </c>
       <c r="AD5" t="n">
-        <v>672340.0645625268</v>
+        <v>751621.872324026</v>
       </c>
       <c r="AE5" t="n">
-        <v>919925.3378846914</v>
+        <v>1028402.20493048</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.370536192946598e-06</v>
+        <v>2.407978026402808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.59413580246914</v>
       </c>
       <c r="AH5" t="n">
-        <v>832128.9547602964</v>
+        <v>930252.941863474</v>
       </c>
     </row>
     <row r="6">
@@ -29323,28 +29323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>643.4147218161148</v>
+        <v>722.5259373770216</v>
       </c>
       <c r="AB6" t="n">
-        <v>880.3484078429906</v>
+        <v>988.5918631139323</v>
       </c>
       <c r="AC6" t="n">
-        <v>796.3291913752055</v>
+        <v>894.2420431957321</v>
       </c>
       <c r="AD6" t="n">
-        <v>643414.7218161148</v>
+        <v>722525.9373770216</v>
       </c>
       <c r="AE6" t="n">
-        <v>880348.4078429906</v>
+        <v>988591.8631139323</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.397623421074918e-06</v>
+        <v>2.455569217693365e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.28935185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>796329.1913752055</v>
+        <v>894242.0431957321</v>
       </c>
     </row>
     <row r="7">
@@ -29429,28 +29429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>615.3367892701764</v>
+        <v>684.7084605700393</v>
       </c>
       <c r="AB7" t="n">
-        <v>841.9309418226778</v>
+        <v>936.8483229572913</v>
       </c>
       <c r="AC7" t="n">
-        <v>761.578234392619</v>
+        <v>847.436833889126</v>
       </c>
       <c r="AD7" t="n">
-        <v>615336.7892701764</v>
+        <v>684708.4605700392</v>
       </c>
       <c r="AE7" t="n">
-        <v>841930.9418226779</v>
+        <v>936848.3229572913</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.421608635348052e-06</v>
+        <v>2.497710293007907e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.03472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>761578.234392619</v>
+        <v>847436.833889126</v>
       </c>
     </row>
     <row r="8">
@@ -29535,28 +29535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>581.67306764399</v>
+        <v>660.8695345509174</v>
       </c>
       <c r="AB8" t="n">
-        <v>795.870752755147</v>
+        <v>904.2308526787378</v>
       </c>
       <c r="AC8" t="n">
-        <v>719.9139651238121</v>
+        <v>817.9323291950508</v>
       </c>
       <c r="AD8" t="n">
-        <v>581673.0676439899</v>
+        <v>660869.5345509173</v>
       </c>
       <c r="AE8" t="n">
-        <v>795870.7527551471</v>
+        <v>904230.8526787378</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.439002070178915e-06</v>
+        <v>2.528269871873419e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.84953703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>719913.9651238121</v>
+        <v>817932.3291950508</v>
       </c>
     </row>
     <row r="9">
@@ -29641,28 +29641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>578.5711560086534</v>
+        <v>657.7676229155809</v>
       </c>
       <c r="AB9" t="n">
-        <v>791.6265804089966</v>
+        <v>899.9866803325873</v>
       </c>
       <c r="AC9" t="n">
-        <v>716.074850629645</v>
+        <v>814.0932147008837</v>
       </c>
       <c r="AD9" t="n">
-        <v>578571.1560086533</v>
+        <v>657767.6229155809</v>
       </c>
       <c r="AE9" t="n">
-        <v>791626.5804089966</v>
+        <v>899986.6803325873</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.439832966747269e-06</v>
+        <v>2.529729724366994e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.84182098765432</v>
       </c>
       <c r="AH9" t="n">
-        <v>716074.8506296449</v>
+        <v>814093.2147008837</v>
       </c>
     </row>
   </sheetData>
@@ -29938,28 +29938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1618.429959777427</v>
+        <v>1751.612155618237</v>
       </c>
       <c r="AB2" t="n">
-        <v>2214.407271058136</v>
+        <v>2396.633026991334</v>
       </c>
       <c r="AC2" t="n">
-        <v>2003.067349048471</v>
+        <v>2167.90173459086</v>
       </c>
       <c r="AD2" t="n">
-        <v>1618429.959777427</v>
+        <v>1751612.155618237</v>
       </c>
       <c r="AE2" t="n">
-        <v>2214407.271058136</v>
+        <v>2396633.026991334</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.090588074361988e-07</v>
+        <v>1.383400397264281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.45138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2003067.349048471</v>
+        <v>2167901.73459086</v>
       </c>
     </row>
     <row r="3">
@@ -30044,28 +30044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1010.431157941905</v>
+        <v>1112.924884811489</v>
       </c>
       <c r="AB3" t="n">
-        <v>1382.51648737271</v>
+        <v>1522.752926179779</v>
       </c>
       <c r="AC3" t="n">
-        <v>1250.571054191935</v>
+        <v>1377.423524102335</v>
       </c>
       <c r="AD3" t="n">
-        <v>1010431.157941905</v>
+        <v>1112924.884811489</v>
       </c>
       <c r="AE3" t="n">
-        <v>1382516.48737271</v>
+        <v>1522752.926179779</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.100025328471675e-06</v>
+        <v>1.880920722228825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.71913580246914</v>
       </c>
       <c r="AH3" t="n">
-        <v>1250571.054191935</v>
+        <v>1377423.524102335</v>
       </c>
     </row>
     <row r="4">
@@ -30150,28 +30150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>866.330621030125</v>
+        <v>958.5664411272935</v>
       </c>
       <c r="AB4" t="n">
-        <v>1185.351775502999</v>
+        <v>1311.55289371714</v>
       </c>
       <c r="AC4" t="n">
-        <v>1072.223465700657</v>
+        <v>1186.380126316823</v>
       </c>
       <c r="AD4" t="n">
-        <v>866330.6210301251</v>
+        <v>958566.4411272935</v>
       </c>
       <c r="AE4" t="n">
-        <v>1185351.775502999</v>
+        <v>1311552.89371714</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.212066922244096e-06</v>
+        <v>2.072499361396057e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.99074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1072223.465700657</v>
+        <v>1186380.126316823</v>
       </c>
     </row>
     <row r="5">
@@ -30256,28 +30256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>807.7125795473663</v>
+        <v>889.6905823806702</v>
       </c>
       <c r="AB5" t="n">
-        <v>1105.147985100812</v>
+        <v>1217.313905191576</v>
       </c>
       <c r="AC5" t="n">
-        <v>999.6742124877288</v>
+        <v>1101.135174590887</v>
       </c>
       <c r="AD5" t="n">
-        <v>807712.5795473664</v>
+        <v>889690.5823806702</v>
       </c>
       <c r="AE5" t="n">
-        <v>1105147.985100812</v>
+        <v>1217313.905191576</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.271744150370616e-06</v>
+        <v>2.174540770919146e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.19212962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>999674.2124877288</v>
+        <v>1101135.174590887</v>
       </c>
     </row>
     <row r="6">
@@ -30362,28 +30362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>760.9284395697144</v>
+        <v>842.991693749039</v>
       </c>
       <c r="AB6" t="n">
-        <v>1041.135860812801</v>
+        <v>1153.418425556214</v>
       </c>
       <c r="AC6" t="n">
-        <v>941.7713155001845</v>
+        <v>1043.337789854055</v>
       </c>
       <c r="AD6" t="n">
-        <v>760928.4395697145</v>
+        <v>842991.693749039</v>
       </c>
       <c r="AE6" t="n">
-        <v>1041135.860812801</v>
+        <v>1153418.425556214</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.308415219890223e-06</v>
+        <v>2.237244213085838e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.74074074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>941771.3155001845</v>
+        <v>1043337.789854056</v>
       </c>
     </row>
     <row r="7">
@@ -30468,28 +30468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>739.9293950454553</v>
+        <v>821.9926492247798</v>
       </c>
       <c r="AB7" t="n">
-        <v>1012.404041682248</v>
+        <v>1124.686606425661</v>
       </c>
       <c r="AC7" t="n">
-        <v>915.7816208620901</v>
+        <v>1017.348095215961</v>
       </c>
       <c r="AD7" t="n">
-        <v>739929.3950454553</v>
+        <v>821992.6492247798</v>
       </c>
       <c r="AE7" t="n">
-        <v>1012404.041682248</v>
+        <v>1124686.606425661</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.326777443929152e-06</v>
+        <v>2.268641569862174e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>915781.6208620901</v>
+        <v>1017348.095215961</v>
       </c>
     </row>
     <row r="8">
@@ -30574,28 +30574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>712.0502102046039</v>
+        <v>793.9428721833361</v>
       </c>
       <c r="AB8" t="n">
-        <v>974.2585110401648</v>
+        <v>1086.307664008731</v>
       </c>
       <c r="AC8" t="n">
-        <v>881.2766461268991</v>
+        <v>982.6319851981189</v>
       </c>
       <c r="AD8" t="n">
-        <v>712050.2102046038</v>
+        <v>793942.8721833362</v>
       </c>
       <c r="AE8" t="n">
-        <v>974258.5110401647</v>
+        <v>1086307.664008731</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.351865366307922e-06</v>
+        <v>2.311539121271702e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.23533950617284</v>
       </c>
       <c r="AH8" t="n">
-        <v>881276.6461268991</v>
+        <v>982631.9851981188</v>
       </c>
     </row>
     <row r="9">
@@ -30680,28 +30680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>693.5572355084573</v>
+        <v>765.3626724239174</v>
       </c>
       <c r="AB9" t="n">
-        <v>948.9556072084332</v>
+        <v>1047.202973828468</v>
       </c>
       <c r="AC9" t="n">
-        <v>858.3886159240194</v>
+        <v>947.2593917648829</v>
       </c>
       <c r="AD9" t="n">
-        <v>693557.2355084573</v>
+        <v>765362.6724239173</v>
       </c>
       <c r="AE9" t="n">
-        <v>948955.6072084332</v>
+        <v>1047202.973828468</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.366224198477898e-06</v>
+        <v>2.336091124099708e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.0733024691358</v>
       </c>
       <c r="AH9" t="n">
-        <v>858388.6159240194</v>
+        <v>947259.391764883</v>
       </c>
     </row>
     <row r="10">
@@ -30786,28 +30786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>663.8783771385913</v>
+        <v>745.8562904633441</v>
       </c>
       <c r="AB10" t="n">
-        <v>908.3476838479598</v>
+        <v>1020.513481469175</v>
       </c>
       <c r="AC10" t="n">
-        <v>821.6562557754911</v>
+        <v>923.1171070974232</v>
       </c>
       <c r="AD10" t="n">
-        <v>663878.3771385913</v>
+        <v>745856.2904633441</v>
       </c>
       <c r="AE10" t="n">
-        <v>908347.6838479599</v>
+        <v>1020513.481469175</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.377166802919702e-06</v>
+        <v>2.35480175822514e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.9537037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>821656.2557754911</v>
+        <v>923117.1070974232</v>
       </c>
     </row>
     <row r="11">
@@ -30892,28 +30892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>644.9303805412156</v>
+        <v>726.9082938659685</v>
       </c>
       <c r="AB11" t="n">
-        <v>882.4221989768175</v>
+        <v>994.5879965980328</v>
       </c>
       <c r="AC11" t="n">
-        <v>798.2050627938042</v>
+        <v>899.6659141157363</v>
       </c>
       <c r="AD11" t="n">
-        <v>644930.3805412157</v>
+        <v>726908.2938659685</v>
       </c>
       <c r="AE11" t="n">
-        <v>882422.1989768175</v>
+        <v>994587.9965980328</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.389123599968307e-06</v>
+        <v>2.375246548684149e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.82638888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>798205.0627938042</v>
+        <v>899665.9141157363</v>
       </c>
     </row>
     <row r="12">
@@ -30998,28 +30998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>639.0633811826025</v>
+        <v>721.0412945073552</v>
       </c>
       <c r="AB12" t="n">
-        <v>874.3947116206189</v>
+        <v>986.5605092418341</v>
       </c>
       <c r="AC12" t="n">
-        <v>790.9437075642317</v>
+        <v>892.4045588861638</v>
       </c>
       <c r="AD12" t="n">
-        <v>639063.3811826025</v>
+        <v>721041.2945073552</v>
       </c>
       <c r="AE12" t="n">
-        <v>874394.7116206188</v>
+        <v>986560.5092418341</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.38917697852656e-06</v>
+        <v>2.375337820070127e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.82253086419753</v>
       </c>
       <c r="AH12" t="n">
-        <v>790943.7075642317</v>
+        <v>892404.5588861639</v>
       </c>
     </row>
     <row r="13">
@@ -31104,28 +31104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>640.8346426715549</v>
+        <v>722.8125559963078</v>
       </c>
       <c r="AB13" t="n">
-        <v>876.8182297323455</v>
+        <v>988.9840273535605</v>
       </c>
       <c r="AC13" t="n">
-        <v>793.1359285088042</v>
+        <v>894.5967798307361</v>
       </c>
       <c r="AD13" t="n">
-        <v>640834.6426715549</v>
+        <v>722812.5559963078</v>
       </c>
       <c r="AE13" t="n">
-        <v>876818.2297323454</v>
+        <v>988984.0273535604</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.388749950060539e-06</v>
+        <v>2.374607648982305e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.83024691358025</v>
       </c>
       <c r="AH13" t="n">
-        <v>793135.9285088042</v>
+        <v>894596.7798307361</v>
       </c>
     </row>
   </sheetData>
@@ -31401,28 +31401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.4936799646503</v>
+        <v>437.5644439647833</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.7163332539031</v>
+        <v>598.6949762134788</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.1195463609196</v>
+        <v>541.5563679573401</v>
       </c>
       <c r="AD2" t="n">
-        <v>364493.6799646503</v>
+        <v>437564.4439647833</v>
       </c>
       <c r="AE2" t="n">
-        <v>498716.3332539031</v>
+        <v>598694.9762134787</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.533909196250912e-06</v>
+        <v>3.28787391151018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.24922839506173</v>
       </c>
       <c r="AH2" t="n">
-        <v>451119.5463609196</v>
+        <v>541556.3679573401</v>
       </c>
     </row>
   </sheetData>
@@ -31698,28 +31698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>802.5837390518994</v>
+        <v>886.9880243361648</v>
       </c>
       <c r="AB2" t="n">
-        <v>1098.13047926644</v>
+        <v>1213.616146046637</v>
       </c>
       <c r="AC2" t="n">
-        <v>993.3264475610582</v>
+        <v>1097.790324388904</v>
       </c>
       <c r="AD2" t="n">
-        <v>802583.7390518994</v>
+        <v>886988.0243361648</v>
       </c>
       <c r="AE2" t="n">
-        <v>1098130.47926644</v>
+        <v>1213616.146046637</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.191513320922295e-06</v>
+        <v>2.195282908477082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.03549382716049</v>
       </c>
       <c r="AH2" t="n">
-        <v>993326.4475610582</v>
+        <v>1097790.324388904</v>
       </c>
     </row>
     <row r="3">
@@ -31804,28 +31804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>605.0232495166927</v>
+        <v>679.9639499713072</v>
       </c>
       <c r="AB3" t="n">
-        <v>827.8195017306997</v>
+        <v>930.3566742430711</v>
       </c>
       <c r="AC3" t="n">
-        <v>748.8135703374887</v>
+        <v>841.564739017105</v>
       </c>
       <c r="AD3" t="n">
-        <v>605023.2495166927</v>
+        <v>679963.9499713072</v>
       </c>
       <c r="AE3" t="n">
-        <v>827819.5017306997</v>
+        <v>930356.6742430711</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.407735246832706e-06</v>
+        <v>2.593657219577275e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>748813.5703374888</v>
+        <v>841564.739017105</v>
       </c>
     </row>
     <row r="4">
@@ -31910,28 +31910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>536.86608759106</v>
+        <v>611.721447191103</v>
       </c>
       <c r="AB4" t="n">
-        <v>734.5638659022802</v>
+        <v>836.9842712924536</v>
       </c>
       <c r="AC4" t="n">
-        <v>664.4581215074268</v>
+        <v>757.1036671551038</v>
       </c>
       <c r="AD4" t="n">
-        <v>536866.08759106</v>
+        <v>611721.447191103</v>
       </c>
       <c r="AE4" t="n">
-        <v>734563.8659022802</v>
+        <v>836984.2712924536</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.485981952484352e-06</v>
+        <v>2.737821495834576e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.26234567901235</v>
       </c>
       <c r="AH4" t="n">
-        <v>664458.1215074267</v>
+        <v>757103.6671551039</v>
       </c>
     </row>
     <row r="5">
@@ -32016,28 +32016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>499.2082524722489</v>
+        <v>574.1488634183125</v>
       </c>
       <c r="AB5" t="n">
-        <v>683.0387545462893</v>
+        <v>785.5758045891123</v>
       </c>
       <c r="AC5" t="n">
-        <v>617.8504944633036</v>
+        <v>710.6015523616933</v>
       </c>
       <c r="AD5" t="n">
-        <v>499208.2524722489</v>
+        <v>574148.8634183125</v>
       </c>
       <c r="AE5" t="n">
-        <v>683038.7545462893</v>
+        <v>785575.8045891123</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.512848026475939e-06</v>
+        <v>2.787320424647189e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.99228395061728</v>
       </c>
       <c r="AH5" t="n">
-        <v>617850.4944633036</v>
+        <v>710601.5523616932</v>
       </c>
     </row>
     <row r="6">
@@ -32122,28 +32122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>500.4957975106948</v>
+        <v>575.4364084567584</v>
       </c>
       <c r="AB6" t="n">
-        <v>684.8004304703691</v>
+        <v>787.337480513192</v>
       </c>
       <c r="AC6" t="n">
-        <v>619.444038509717</v>
+        <v>712.1950964081065</v>
       </c>
       <c r="AD6" t="n">
-        <v>500495.7975106948</v>
+        <v>575436.4084567584</v>
       </c>
       <c r="AE6" t="n">
-        <v>684800.4304703691</v>
+        <v>787337.480513192</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.514964391166743e-06</v>
+        <v>2.79121968380967e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.96913580246914</v>
       </c>
       <c r="AH6" t="n">
-        <v>619444.038509717</v>
+        <v>712195.0964081065</v>
       </c>
     </row>
   </sheetData>
@@ -32419,28 +32419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1027.166919910437</v>
+        <v>1133.932985705791</v>
       </c>
       <c r="AB2" t="n">
-        <v>1405.415095227766</v>
+        <v>1551.497136635364</v>
       </c>
       <c r="AC2" t="n">
-        <v>1271.284251051702</v>
+        <v>1403.424427454792</v>
       </c>
       <c r="AD2" t="n">
-        <v>1027166.919910437</v>
+        <v>1133932.985705792</v>
       </c>
       <c r="AE2" t="n">
-        <v>1405415.095227766</v>
+        <v>1551497.136635364</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.043367250295777e-06</v>
+        <v>1.863899449505472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.92978395061728</v>
       </c>
       <c r="AH2" t="n">
-        <v>1271284.251051702</v>
+        <v>1403424.427454792</v>
       </c>
     </row>
     <row r="3">
@@ -32525,28 +32525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>731.0992924235594</v>
+        <v>818.4378297371094</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000.322305718336</v>
+        <v>1119.822745575062</v>
       </c>
       <c r="AC3" t="n">
-        <v>904.8529488217509</v>
+        <v>1012.948434418472</v>
       </c>
       <c r="AD3" t="n">
-        <v>731099.2924235594</v>
+        <v>818437.8297371094</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000322.305718336</v>
+        <v>1119822.745575062</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.289577922900021e-06</v>
+        <v>2.303736848081407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.93287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>904852.9488217509</v>
+        <v>1012948.434418472</v>
       </c>
     </row>
     <row r="4">
@@ -32631,28 +32631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>648.2537104886273</v>
+        <v>725.9638244158465</v>
       </c>
       <c r="AB4" t="n">
-        <v>886.9693256258361</v>
+        <v>993.295731829324</v>
       </c>
       <c r="AC4" t="n">
-        <v>802.3182180573726</v>
+        <v>898.496981282848</v>
       </c>
       <c r="AD4" t="n">
-        <v>648253.7104886273</v>
+        <v>725963.8244158465</v>
       </c>
       <c r="AE4" t="n">
-        <v>886969.325625836</v>
+        <v>993295.731829324</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.379402368284604e-06</v>
+        <v>2.464201664527387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.82947530864198</v>
       </c>
       <c r="AH4" t="n">
-        <v>802318.2180573726</v>
+        <v>898496.9812828479</v>
       </c>
     </row>
     <row r="5">
@@ -32737,28 +32737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>606.4285584060073</v>
+        <v>683.968080132634</v>
       </c>
       <c r="AB5" t="n">
-        <v>829.7423073509125</v>
+        <v>935.8353017795536</v>
       </c>
       <c r="AC5" t="n">
-        <v>750.5528660879831</v>
+        <v>846.5204940308076</v>
       </c>
       <c r="AD5" t="n">
-        <v>606428.5584060072</v>
+        <v>683968.080132634</v>
       </c>
       <c r="AE5" t="n">
-        <v>829742.3073509125</v>
+        <v>935835.3017795535</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.427682300176884e-06</v>
+        <v>2.55045023946653e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.29706790123457</v>
       </c>
       <c r="AH5" t="n">
-        <v>750552.8660879831</v>
+        <v>846520.4940308076</v>
       </c>
     </row>
     <row r="6">
@@ -32843,28 +32843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>566.2128176576425</v>
+        <v>643.8375907302899</v>
       </c>
       <c r="AB6" t="n">
-        <v>774.7173566657345</v>
+        <v>880.9269957470251</v>
       </c>
       <c r="AC6" t="n">
-        <v>700.7794194681953</v>
+        <v>796.8525596617319</v>
       </c>
       <c r="AD6" t="n">
-        <v>566212.8176576425</v>
+        <v>643837.5907302899</v>
       </c>
       <c r="AE6" t="n">
-        <v>774717.3566657346</v>
+        <v>880926.9957470251</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455982377487717e-06</v>
+        <v>2.60100626229135e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.99614197530864</v>
       </c>
       <c r="AH6" t="n">
-        <v>700779.4194681953</v>
+        <v>796852.5596617319</v>
       </c>
     </row>
     <row r="7">
@@ -32949,28 +32949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>546.9987450705697</v>
+        <v>624.623518143217</v>
       </c>
       <c r="AB7" t="n">
-        <v>748.4278148870441</v>
+        <v>854.6374539683345</v>
       </c>
       <c r="AC7" t="n">
-        <v>676.9989146592594</v>
+        <v>773.0720548527961</v>
       </c>
       <c r="AD7" t="n">
-        <v>546998.7450705697</v>
+        <v>624623.518143217</v>
       </c>
       <c r="AE7" t="n">
-        <v>748427.814887044</v>
+        <v>854637.4539683345</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.468264611040618e-06</v>
+        <v>2.622947576197322e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.87268518518518</v>
       </c>
       <c r="AH7" t="n">
-        <v>676998.9146592594</v>
+        <v>773072.0548527961</v>
       </c>
     </row>
     <row r="8">
@@ -33055,28 +33055,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>548.9876021066941</v>
+        <v>626.6123751793415</v>
       </c>
       <c r="AB8" t="n">
-        <v>751.1490568260494</v>
+        <v>857.35869590734</v>
       </c>
       <c r="AC8" t="n">
-        <v>679.4604450868933</v>
+        <v>775.53358528043</v>
       </c>
       <c r="AD8" t="n">
-        <v>548987.6021066941</v>
+        <v>626612.3751793415</v>
       </c>
       <c r="AE8" t="n">
-        <v>751149.0568260495</v>
+        <v>857358.69590734</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.467811809803645e-06</v>
+        <v>2.622138679832125e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.87654320987655</v>
       </c>
       <c r="AH8" t="n">
-        <v>679460.4450868933</v>
+        <v>775533.5852804299</v>
       </c>
     </row>
   </sheetData>
